--- a/sklad/skladove_zasoby.xlsx
+++ b/sklad/skladove_zasoby.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterFrantaIIIC\STUDENTSKY_PROJEKT\sklad\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AD102-8DB2-4302-AF89-77A4533CE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21156" windowHeight="6708"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Počet kusov</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>TP-Link TG-3468</t>
-  </si>
-  <si>
-    <t>TP-Link Archer AX23</t>
   </si>
   <si>
     <t>Pigtail U.FL - RSMA/F kábel, 0,2 m</t>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,21 +387,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -414,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -425,7 +423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -436,47 +434,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>171.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>171.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
         <v>3.7</v>
       </c>
     </row>

--- a/sklad/skladove_zasoby.xlsx
+++ b/sklad/skladove_zasoby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterFrantaIIIC\STUDENTSKY_PROJEKT\sklad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AD102-8DB2-4302-AF89-77A4533CE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E8FD2-4BD9-4B74-8362-CB81081A8756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Počet kusov</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Pigtail U.FL - RSMA/F kábel, 0,2 m</t>
+  </si>
+  <si>
+    <t>Smerovac</t>
+  </si>
+  <si>
+    <t>Prepinac</t>
   </si>
 </sst>
 </file>
@@ -388,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,6 +473,22 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
